--- a/datasheets/Bojar_et_al_2015.xlsx
+++ b/datasheets/Bojar_et_al_2015.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1177/0959683615580202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bojar et al. (2015)</t>
   </si>
   <si>
     <t xml:space="preserve">Ovis aries</t>
@@ -353,7 +356,7 @@
   <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ2" activeCellId="0" sqref="AQ2"/>
+      <selection pane="topLeft" activeCell="AQ8" activeCellId="0" sqref="AQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -388,7 +391,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="39" style="1" width="14.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="24.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1026" min="43" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="15.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1026" min="44" style="1" width="11.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,10 +633,13 @@
       <c r="AP2" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="AQ2" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>44</v>
@@ -656,7 +663,7 @@
         <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>14.8</v>
@@ -732,10 +739,13 @@
         <v>-13.7</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
